--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk4-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk4-Lrp6.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2686976666666667</v>
+        <v>0.2063233333333333</v>
       </c>
       <c r="H2">
-        <v>0.8060930000000001</v>
+        <v>0.61897</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N2">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q2">
-        <v>2.896456591972</v>
+        <v>2.979342976683333</v>
       </c>
       <c r="R2">
-        <v>26.068109327748</v>
+        <v>26.81408679015</v>
       </c>
       <c r="S2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="T2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2686976666666667</v>
+        <v>0.2063233333333333</v>
       </c>
       <c r="H3">
-        <v>0.8060930000000001</v>
+        <v>0.61897</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>115.631084</v>
       </c>
       <c r="O3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q3">
-        <v>10.35660082164578</v>
+        <v>7.952463562608889</v>
       </c>
       <c r="R3">
-        <v>93.209407394812</v>
+        <v>71.57217206348</v>
       </c>
       <c r="S3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="T3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2686976666666667</v>
+        <v>0.2063233333333333</v>
       </c>
       <c r="H4">
-        <v>0.8060930000000001</v>
+        <v>0.61897</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N4">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q4">
-        <v>5.279154288688446</v>
+        <v>4.529676516713333</v>
       </c>
       <c r="R4">
-        <v>47.51238859819601</v>
+        <v>40.76708865042</v>
       </c>
       <c r="S4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="T4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2686976666666667</v>
+        <v>0.2063233333333333</v>
       </c>
       <c r="H5">
-        <v>0.8060930000000001</v>
+        <v>0.61897</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N5">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q5">
-        <v>3.392488964762222</v>
+        <v>5.21381876208111</v>
       </c>
       <c r="R5">
-        <v>30.53240068286</v>
+        <v>46.92436885873</v>
       </c>
       <c r="S5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="T5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
     </row>
   </sheetData>
